--- a/Other/Seychelles Plan.xlsx
+++ b/Other/Seychelles Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>1月12</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>拉迪格岛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>博瓦隆海滩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家森林公园</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳岛游</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋公园</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J16" sqref="J16:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1027,6 +1043,26 @@
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
